--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSRLAB435\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5B4A6C2-DEC0-4D8D-948C-3E5E9C280576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3FC2AB-C05E-4EE6-A469-14C2922BA64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vaa" sheetId="1" r:id="rId1"/>
     <sheet name="avv" sheetId="2" r:id="rId2"/>
     <sheet name="vtt" sheetId="3" r:id="rId3"/>
+    <sheet name="tvv" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4085" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5286" uniqueCount="425">
   <si>
     <t>[2024-01-02</t>
   </si>
@@ -1066,6 +1067,267 @@
       <t>_fusion in layer3</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ipython-input-17-68bf7650707d&gt;</t>
+  </si>
+  <si>
+    <t>133]</t>
+  </si>
+  <si>
+    <t>159]</t>
+  </si>
+  <si>
+    <t>181]</t>
+  </si>
+  <si>
+    <t>191]</t>
+  </si>
+  <si>
+    <t>059]</t>
+  </si>
+  <si>
+    <t>045]</t>
+  </si>
+  <si>
+    <t>506]</t>
+  </si>
+  <si>
+    <t>868]</t>
+  </si>
+  <si>
+    <t>823]</t>
+  </si>
+  <si>
+    <t>410]</t>
+  </si>
+  <si>
+    <t>444]</t>
+  </si>
+  <si>
+    <t>248]</t>
+  </si>
+  <si>
+    <t>042]</t>
+  </si>
+  <si>
+    <t>538]</t>
+  </si>
+  <si>
+    <t>586]</t>
+  </si>
+  <si>
+    <t>580]</t>
+  </si>
+  <si>
+    <t>180]</t>
+  </si>
+  <si>
+    <t>132]</t>
+  </si>
+  <si>
+    <t>786]</t>
+  </si>
+  <si>
+    <t>574]</t>
+  </si>
+  <si>
+    <t>667]</t>
+  </si>
+  <si>
+    <t>641]</t>
+  </si>
+  <si>
+    <t>393]</t>
+  </si>
+  <si>
+    <t>515]</t>
+  </si>
+  <si>
+    <t>782]</t>
+  </si>
+  <si>
+    <t>872]</t>
+  </si>
+  <si>
+    <t>751]</t>
+  </si>
+  <si>
+    <t>301]</t>
+  </si>
+  <si>
+    <t>074]</t>
+  </si>
+  <si>
+    <t>230]</t>
+  </si>
+  <si>
+    <t>389]</t>
+  </si>
+  <si>
+    <t>288]</t>
+  </si>
+  <si>
+    <t>937]</t>
+  </si>
+  <si>
+    <t>812]</t>
+  </si>
+  <si>
+    <t>901]</t>
+  </si>
+  <si>
+    <t>033]</t>
+  </si>
+  <si>
+    <t>610]</t>
+  </si>
+  <si>
+    <t>029]</t>
+  </si>
+  <si>
+    <t>049]</t>
+  </si>
+  <si>
+    <t>279]</t>
+  </si>
+  <si>
+    <t>888]</t>
+  </si>
+  <si>
+    <t>783]</t>
+  </si>
+  <si>
+    <t>696]</t>
+  </si>
+  <si>
+    <t>[2024-01-06 12</t>
+  </si>
+  <si>
+    <t>961]</t>
+  </si>
+  <si>
+    <t>211]</t>
+  </si>
+  <si>
+    <t>153]</t>
+  </si>
+  <si>
+    <t>[2024-01-06 13</t>
+  </si>
+  <si>
+    <t>882]</t>
+  </si>
+  <si>
+    <t>763]</t>
+  </si>
+  <si>
+    <t>091]</t>
+  </si>
+  <si>
+    <t>915]</t>
+  </si>
+  <si>
+    <t>830]</t>
+  </si>
+  <si>
+    <t>[2024-01-06 14</t>
+  </si>
+  <si>
+    <t>183]</t>
+  </si>
+  <si>
+    <t>[2024-01-06 15</t>
+  </si>
+  <si>
+    <t>582]</t>
+  </si>
+  <si>
+    <t>092]</t>
+  </si>
+  <si>
+    <t>025]</t>
+  </si>
+  <si>
+    <t>500]</t>
+  </si>
+  <si>
+    <t>[2024-01-06 16</t>
+  </si>
+  <si>
+    <t>240]</t>
+  </si>
+  <si>
+    <t>295]</t>
+  </si>
+  <si>
+    <t>[2024-01-06 17</t>
+  </si>
+  <si>
+    <t>009]</t>
+  </si>
+  <si>
+    <t>318]</t>
+  </si>
+  <si>
+    <t>[2024-01-06 18</t>
+  </si>
+  <si>
+    <t>778]</t>
+  </si>
+  <si>
+    <t>839]</t>
+  </si>
+  <si>
+    <t>012]</t>
+  </si>
+  <si>
+    <t>[2024-01-06 19</t>
+  </si>
+  <si>
+    <t>911]</t>
+  </si>
+  <si>
+    <t>916]</t>
+  </si>
+  <si>
+    <t>[2024-01-06 20</t>
+  </si>
+  <si>
+    <t>423]</t>
+  </si>
+  <si>
+    <t>382]</t>
+  </si>
+  <si>
+    <t>627]</t>
+  </si>
+  <si>
+    <t>[2024-01-06 21</t>
+  </si>
+  <si>
+    <t>314]</t>
+  </si>
+  <si>
+    <t>369]</t>
+  </si>
+  <si>
+    <t>462]</t>
+  </si>
+  <si>
+    <t>375]</t>
+  </si>
+  <si>
+    <t>[2024-01-06 22</t>
+  </si>
+  <si>
+    <t>733]</t>
+  </si>
+  <si>
+    <t>499]</t>
+  </si>
+  <si>
+    <t>152]</t>
   </si>
 </sst>
 </file>
@@ -17833,7 +18095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE9EFB9-FD55-4FC7-9E0D-9F139044B737}">
   <dimension ref="A1:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
@@ -24593,4 +24855,6770 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54CD99A-4723-4A45-B134-C9354C4CACDB}">
+  <dimension ref="A1:U122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1">
+        <v>52</v>
+      </c>
+      <c r="C1">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" s="3">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="N1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O1">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="P1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q1">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="R1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="T1" t="s">
+        <v>229</v>
+      </c>
+      <c r="U1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="N2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O2">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="P2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q2">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="R2" t="s">
+        <v>228</v>
+      </c>
+      <c r="S2">
+        <v>0.1002</v>
+      </c>
+      <c r="T2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="N3" t="s">
+        <v>226</v>
+      </c>
+      <c r="O3">
+        <v>0.90349999999999997</v>
+      </c>
+      <c r="P3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q3">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="R3" t="s">
+        <v>228</v>
+      </c>
+      <c r="S3">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>229</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="N4" t="s">
+        <v>226</v>
+      </c>
+      <c r="O4">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="P4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q4">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="R4" t="s">
+        <v>228</v>
+      </c>
+      <c r="S4">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>229</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.9042</v>
+      </c>
+      <c r="N5" t="s">
+        <v>226</v>
+      </c>
+      <c r="O5">
+        <v>0.9284</v>
+      </c>
+      <c r="P5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q5">
+        <v>0.9042</v>
+      </c>
+      <c r="R5" t="s">
+        <v>228</v>
+      </c>
+      <c r="S5">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>229</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>225</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="N6" t="s">
+        <v>226</v>
+      </c>
+      <c r="O6">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="P6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q6">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="R6" t="s">
+        <v>228</v>
+      </c>
+      <c r="S6">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>229</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="N7" t="s">
+        <v>226</v>
+      </c>
+      <c r="O7">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="P7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q7">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="R7" t="s">
+        <v>228</v>
+      </c>
+      <c r="S7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>229</v>
+      </c>
+      <c r="U7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>225</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="N8" t="s">
+        <v>226</v>
+      </c>
+      <c r="O8">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="P8" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q8">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="R8" t="s">
+        <v>228</v>
+      </c>
+      <c r="S8">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>229</v>
+      </c>
+      <c r="U8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>225</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="N9" t="s">
+        <v>226</v>
+      </c>
+      <c r="O9">
+        <v>0.9506</v>
+      </c>
+      <c r="P9" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q9">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="R9" t="s">
+        <v>228</v>
+      </c>
+      <c r="S9">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>229</v>
+      </c>
+      <c r="U9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="N10" t="s">
+        <v>226</v>
+      </c>
+      <c r="O10">
+        <v>0.95409999999999995</v>
+      </c>
+      <c r="P10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q10">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="R10" t="s">
+        <v>228</v>
+      </c>
+      <c r="S10">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="T10" t="s">
+        <v>229</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" t="s">
+        <v>338</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
+        <v>225</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="N11" t="s">
+        <v>226</v>
+      </c>
+      <c r="O11">
+        <v>0.95809999999999995</v>
+      </c>
+      <c r="P11" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q11">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="R11" t="s">
+        <v>228</v>
+      </c>
+      <c r="S11">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="T11" t="s">
+        <v>229</v>
+      </c>
+      <c r="U11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>344</v>
+      </c>
+      <c r="F12" t="s">
+        <v>338</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>225</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="N12" t="s">
+        <v>226</v>
+      </c>
+      <c r="O12">
+        <v>0.96030000000000004</v>
+      </c>
+      <c r="P12" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q12">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="R12" t="s">
+        <v>228</v>
+      </c>
+      <c r="S12">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="T12" t="s">
+        <v>229</v>
+      </c>
+      <c r="U12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>225</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="N13" t="s">
+        <v>226</v>
+      </c>
+      <c r="O13">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="P13" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q13">
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="R13" t="s">
+        <v>228</v>
+      </c>
+      <c r="S13">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="T13" t="s">
+        <v>229</v>
+      </c>
+      <c r="U13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" t="s">
+        <v>338</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>225</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="N14" t="s">
+        <v>226</v>
+      </c>
+      <c r="O14">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="P14" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q14">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="R14" t="s">
+        <v>228</v>
+      </c>
+      <c r="S14">
+        <v>9.06E-2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>229</v>
+      </c>
+      <c r="U14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>346</v>
+      </c>
+      <c r="F15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>225</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="N15" t="s">
+        <v>226</v>
+      </c>
+      <c r="O15">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="P15" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q15">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="R15" t="s">
+        <v>228</v>
+      </c>
+      <c r="S15">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>229</v>
+      </c>
+      <c r="U15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>347</v>
+      </c>
+      <c r="F16" t="s">
+        <v>338</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>225</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="N16" t="s">
+        <v>226</v>
+      </c>
+      <c r="O16">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="P16" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q16">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="R16" t="s">
+        <v>228</v>
+      </c>
+      <c r="S16">
+        <v>9.11E-2</v>
+      </c>
+      <c r="T16" t="s">
+        <v>229</v>
+      </c>
+      <c r="U16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" t="s">
+        <v>338</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>225</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="N17" t="s">
+        <v>226</v>
+      </c>
+      <c r="O17">
+        <v>0.9698</v>
+      </c>
+      <c r="P17" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q17">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="R17" t="s">
+        <v>228</v>
+      </c>
+      <c r="S17">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="T17" t="s">
+        <v>229</v>
+      </c>
+      <c r="U17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>225</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.9103</v>
+      </c>
+      <c r="N18" t="s">
+        <v>226</v>
+      </c>
+      <c r="O18">
+        <v>0.9708</v>
+      </c>
+      <c r="P18" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q18">
+        <v>0.9103</v>
+      </c>
+      <c r="R18" t="s">
+        <v>228</v>
+      </c>
+      <c r="S18">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="T18" t="s">
+        <v>229</v>
+      </c>
+      <c r="U18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" t="s">
+        <v>338</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>225</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="N19" t="s">
+        <v>226</v>
+      </c>
+      <c r="O19">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="P19" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q19">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="R19" t="s">
+        <v>228</v>
+      </c>
+      <c r="S19">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="T19" t="s">
+        <v>229</v>
+      </c>
+      <c r="U19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" t="s">
+        <v>338</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>225</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="N20" t="s">
+        <v>226</v>
+      </c>
+      <c r="O20">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="P20" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q20">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="R20" t="s">
+        <v>228</v>
+      </c>
+      <c r="S20">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="T20" t="s">
+        <v>229</v>
+      </c>
+      <c r="U20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>225</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="N21" t="s">
+        <v>226</v>
+      </c>
+      <c r="O21">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="P21" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q21">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="R21" t="s">
+        <v>228</v>
+      </c>
+      <c r="S21">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="T21" t="s">
+        <v>229</v>
+      </c>
+      <c r="U21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22" t="s">
+        <v>338</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="N22" t="s">
+        <v>226</v>
+      </c>
+      <c r="O22">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="P22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q22">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="R22" t="s">
+        <v>228</v>
+      </c>
+      <c r="S22">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="T22" t="s">
+        <v>229</v>
+      </c>
+      <c r="U22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>353</v>
+      </c>
+      <c r="F23" t="s">
+        <v>338</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>23</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="N23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="P23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q23">
+        <v>0.91</v>
+      </c>
+      <c r="R23" t="s">
+        <v>228</v>
+      </c>
+      <c r="S23">
+        <v>0.09</v>
+      </c>
+      <c r="T23" t="s">
+        <v>229</v>
+      </c>
+      <c r="U23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>338</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="P24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q24">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="R24" t="s">
+        <v>228</v>
+      </c>
+      <c r="S24">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="T24" t="s">
+        <v>229</v>
+      </c>
+      <c r="U24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>354</v>
+      </c>
+      <c r="F25" t="s">
+        <v>338</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="N25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="P25" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q25">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="R25" t="s">
+        <v>228</v>
+      </c>
+      <c r="S25">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="T25" t="s">
+        <v>229</v>
+      </c>
+      <c r="U25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>355</v>
+      </c>
+      <c r="F26" t="s">
+        <v>338</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="P26" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q26">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="R26" t="s">
+        <v>228</v>
+      </c>
+      <c r="S26">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="T26" t="s">
+        <v>229</v>
+      </c>
+      <c r="U26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>356</v>
+      </c>
+      <c r="F27" t="s">
+        <v>338</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>225</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="N27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="P27" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q27">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="R27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S27">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="T27" t="s">
+        <v>229</v>
+      </c>
+      <c r="U27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>357</v>
+      </c>
+      <c r="F28" t="s">
+        <v>338</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28">
+        <v>0.9768</v>
+      </c>
+      <c r="P28" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q28">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="R28" t="s">
+        <v>228</v>
+      </c>
+      <c r="S28">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="T28" t="s">
+        <v>229</v>
+      </c>
+      <c r="U28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" t="s">
+        <v>338</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>29</v>
+      </c>
+      <c r="L29" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="N29" t="s">
+        <v>226</v>
+      </c>
+      <c r="O29">
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="P29" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q29">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="R29" t="s">
+        <v>228</v>
+      </c>
+      <c r="S29">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="T29" t="s">
+        <v>229</v>
+      </c>
+      <c r="U29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>358</v>
+      </c>
+      <c r="F30" t="s">
+        <v>338</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>30</v>
+      </c>
+      <c r="L30" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="N30" t="s">
+        <v>226</v>
+      </c>
+      <c r="O30">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="P30" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q30">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="R30" t="s">
+        <v>228</v>
+      </c>
+      <c r="S30">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="T30" t="s">
+        <v>229</v>
+      </c>
+      <c r="U30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F31" t="s">
+        <v>338</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>31</v>
+      </c>
+      <c r="L31" t="s">
+        <v>225</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="N31" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="P31" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q31">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="R31" t="s">
+        <v>228</v>
+      </c>
+      <c r="S31">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="T31" t="s">
+        <v>229</v>
+      </c>
+      <c r="U31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>360</v>
+      </c>
+      <c r="F32" t="s">
+        <v>338</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
+        <v>225</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="N32" t="s">
+        <v>226</v>
+      </c>
+      <c r="O32">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="P32" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q32">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="R32" t="s">
+        <v>228</v>
+      </c>
+      <c r="S32">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="T32" t="s">
+        <v>229</v>
+      </c>
+      <c r="U32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B33">
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33" t="s">
+        <v>338</v>
+      </c>
+      <c r="H33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>33</v>
+      </c>
+      <c r="L33" t="s">
+        <v>225</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="N33" t="s">
+        <v>226</v>
+      </c>
+      <c r="O33">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="P33" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q33">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="R33" t="s">
+        <v>228</v>
+      </c>
+      <c r="S33">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="T33" t="s">
+        <v>229</v>
+      </c>
+      <c r="U33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>338</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>34</v>
+      </c>
+      <c r="L34" t="s">
+        <v>225</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="N34" t="s">
+        <v>226</v>
+      </c>
+      <c r="O34">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="P34" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q34">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="R34" t="s">
+        <v>228</v>
+      </c>
+      <c r="S34">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="T34" t="s">
+        <v>229</v>
+      </c>
+      <c r="U34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>361</v>
+      </c>
+      <c r="F35" t="s">
+        <v>338</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>35</v>
+      </c>
+      <c r="L35" t="s">
+        <v>225</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="N35" t="s">
+        <v>226</v>
+      </c>
+      <c r="O35">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="P35" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q35">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="R35" t="s">
+        <v>228</v>
+      </c>
+      <c r="S35">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="T35" t="s">
+        <v>229</v>
+      </c>
+      <c r="U35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>362</v>
+      </c>
+      <c r="F36" t="s">
+        <v>338</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>36</v>
+      </c>
+      <c r="L36" t="s">
+        <v>225</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.9113</v>
+      </c>
+      <c r="N36" t="s">
+        <v>226</v>
+      </c>
+      <c r="O36">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="P36" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q36">
+        <v>0.9113</v>
+      </c>
+      <c r="R36" t="s">
+        <v>228</v>
+      </c>
+      <c r="S36">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="T36" t="s">
+        <v>229</v>
+      </c>
+      <c r="U36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>338</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>37</v>
+      </c>
+      <c r="L37" t="s">
+        <v>225</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="N37" t="s">
+        <v>226</v>
+      </c>
+      <c r="O37">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="P37" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q37">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="R37" t="s">
+        <v>228</v>
+      </c>
+      <c r="S37">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="T37" t="s">
+        <v>229</v>
+      </c>
+      <c r="U37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>338</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>38</v>
+      </c>
+      <c r="L38" t="s">
+        <v>225</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="N38" t="s">
+        <v>226</v>
+      </c>
+      <c r="O38">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="P38" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q38">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="R38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S38">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="T38" t="s">
+        <v>229</v>
+      </c>
+      <c r="U38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>295</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>363</v>
+      </c>
+      <c r="F39" t="s">
+        <v>338</v>
+      </c>
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>39</v>
+      </c>
+      <c r="L39" t="s">
+        <v>225</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="N39" t="s">
+        <v>226</v>
+      </c>
+      <c r="O39">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="P39" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q39">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="R39" t="s">
+        <v>228</v>
+      </c>
+      <c r="S39">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="T39" t="s">
+        <v>229</v>
+      </c>
+      <c r="U39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>295</v>
+      </c>
+      <c r="B40">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>364</v>
+      </c>
+      <c r="F40" t="s">
+        <v>338</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>40</v>
+      </c>
+      <c r="L40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.9123</v>
+      </c>
+      <c r="N40" t="s">
+        <v>226</v>
+      </c>
+      <c r="O40">
+        <v>0.9798</v>
+      </c>
+      <c r="P40" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q40">
+        <v>0.9123</v>
+      </c>
+      <c r="R40" t="s">
+        <v>228</v>
+      </c>
+      <c r="S40">
+        <v>8.77E-2</v>
+      </c>
+      <c r="T40" t="s">
+        <v>229</v>
+      </c>
+      <c r="U40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>295</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>365</v>
+      </c>
+      <c r="F41" t="s">
+        <v>338</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>41</v>
+      </c>
+      <c r="L41" t="s">
+        <v>225</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.9123</v>
+      </c>
+      <c r="N41" t="s">
+        <v>226</v>
+      </c>
+      <c r="O41">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="P41" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q41">
+        <v>0.9123</v>
+      </c>
+      <c r="R41" t="s">
+        <v>228</v>
+      </c>
+      <c r="S41">
+        <v>8.77E-2</v>
+      </c>
+      <c r="T41" t="s">
+        <v>229</v>
+      </c>
+      <c r="U41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>338</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>42</v>
+      </c>
+      <c r="L42" t="s">
+        <v>225</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="N42" t="s">
+        <v>226</v>
+      </c>
+      <c r="O42">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="P42" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q42">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="R42" t="s">
+        <v>228</v>
+      </c>
+      <c r="S42">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="T42" t="s">
+        <v>229</v>
+      </c>
+      <c r="U42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>366</v>
+      </c>
+      <c r="F43" t="s">
+        <v>338</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>43</v>
+      </c>
+      <c r="L43" t="s">
+        <v>225</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="N43" t="s">
+        <v>226</v>
+      </c>
+      <c r="O43">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="P43" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q43">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="R43" t="s">
+        <v>228</v>
+      </c>
+      <c r="S43">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="T43" t="s">
+        <v>229</v>
+      </c>
+      <c r="U43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>59</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>338</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>44</v>
+      </c>
+      <c r="L44" t="s">
+        <v>225</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="N44" t="s">
+        <v>226</v>
+      </c>
+      <c r="O44">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="P44" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q44">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="R44" t="s">
+        <v>228</v>
+      </c>
+      <c r="S44">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="T44" t="s">
+        <v>229</v>
+      </c>
+      <c r="U44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>367</v>
+      </c>
+      <c r="F45" t="s">
+        <v>338</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>45</v>
+      </c>
+      <c r="L45" t="s">
+        <v>225</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.9123</v>
+      </c>
+      <c r="N45" t="s">
+        <v>226</v>
+      </c>
+      <c r="O45">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="P45" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q45">
+        <v>0.9123</v>
+      </c>
+      <c r="R45" t="s">
+        <v>228</v>
+      </c>
+      <c r="S45">
+        <v>8.77E-2</v>
+      </c>
+      <c r="T45" t="s">
+        <v>229</v>
+      </c>
+      <c r="U45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>368</v>
+      </c>
+      <c r="F46" t="s">
+        <v>338</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>46</v>
+      </c>
+      <c r="L46" t="s">
+        <v>225</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="N46" t="s">
+        <v>226</v>
+      </c>
+      <c r="O46">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="P46" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q46">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="R46" t="s">
+        <v>228</v>
+      </c>
+      <c r="S46">
+        <v>8.72E-2</v>
+      </c>
+      <c r="T46" t="s">
+        <v>229</v>
+      </c>
+      <c r="U46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>303</v>
+      </c>
+      <c r="B47">
+        <v>58</v>
+      </c>
+      <c r="C47">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>369</v>
+      </c>
+      <c r="F47" t="s">
+        <v>338</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>47</v>
+      </c>
+      <c r="L47" t="s">
+        <v>225</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="N47" t="s">
+        <v>226</v>
+      </c>
+      <c r="O47">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="P47" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q47">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="R47" t="s">
+        <v>228</v>
+      </c>
+      <c r="S47">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="T47" t="s">
+        <v>229</v>
+      </c>
+      <c r="U47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>309</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>370</v>
+      </c>
+      <c r="F48" t="s">
+        <v>338</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>48</v>
+      </c>
+      <c r="L48" t="s">
+        <v>225</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="N48" t="s">
+        <v>226</v>
+      </c>
+      <c r="O48">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="P48" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q48">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="R48" t="s">
+        <v>228</v>
+      </c>
+      <c r="S48">
+        <v>8.72E-2</v>
+      </c>
+      <c r="T48" t="s">
+        <v>229</v>
+      </c>
+      <c r="U48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>309</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" t="s">
+        <v>338</v>
+      </c>
+      <c r="H49" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>49</v>
+      </c>
+      <c r="L49" t="s">
+        <v>225</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0.9123</v>
+      </c>
+      <c r="N49" t="s">
+        <v>226</v>
+      </c>
+      <c r="O49">
+        <v>0.9819</v>
+      </c>
+      <c r="P49" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q49">
+        <v>0.9123</v>
+      </c>
+      <c r="R49" t="s">
+        <v>228</v>
+      </c>
+      <c r="S49">
+        <v>8.77E-2</v>
+      </c>
+      <c r="T49" t="s">
+        <v>229</v>
+      </c>
+      <c r="U49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>309</v>
+      </c>
+      <c r="B50">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" t="s">
+        <v>338</v>
+      </c>
+      <c r="H50" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>50</v>
+      </c>
+      <c r="L50" t="s">
+        <v>225</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0.9123</v>
+      </c>
+      <c r="N50" t="s">
+        <v>226</v>
+      </c>
+      <c r="O50">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="P50" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q50">
+        <v>0.9123</v>
+      </c>
+      <c r="R50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S50">
+        <v>8.77E-2</v>
+      </c>
+      <c r="T50" t="s">
+        <v>229</v>
+      </c>
+      <c r="U50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>309</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>371</v>
+      </c>
+      <c r="F51" t="s">
+        <v>338</v>
+      </c>
+      <c r="H51" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>51</v>
+      </c>
+      <c r="L51" t="s">
+        <v>225</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N51" t="s">
+        <v>226</v>
+      </c>
+      <c r="O51">
+        <v>0.9819</v>
+      </c>
+      <c r="P51" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q51">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R51" t="s">
+        <v>228</v>
+      </c>
+      <c r="S51">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T51" t="s">
+        <v>229</v>
+      </c>
+      <c r="U51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>315</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" t="s">
+        <v>338</v>
+      </c>
+      <c r="H52" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>52</v>
+      </c>
+      <c r="L52" t="s">
+        <v>225</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="N52" t="s">
+        <v>226</v>
+      </c>
+      <c r="O52">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="P52" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q52">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="R52" t="s">
+        <v>228</v>
+      </c>
+      <c r="S52">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="T52" t="s">
+        <v>229</v>
+      </c>
+      <c r="U52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>315</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>289</v>
+      </c>
+      <c r="F53" t="s">
+        <v>338</v>
+      </c>
+      <c r="H53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>53</v>
+      </c>
+      <c r="L53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="N53" t="s">
+        <v>226</v>
+      </c>
+      <c r="O53">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="P53" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q53">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="R53" t="s">
+        <v>228</v>
+      </c>
+      <c r="S53">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="T53" t="s">
+        <v>229</v>
+      </c>
+      <c r="U53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>315</v>
+      </c>
+      <c r="B54">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>372</v>
+      </c>
+      <c r="F54" t="s">
+        <v>338</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>54</v>
+      </c>
+      <c r="L54" t="s">
+        <v>225</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N54" t="s">
+        <v>226</v>
+      </c>
+      <c r="O54">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="P54" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q54">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R54" t="s">
+        <v>228</v>
+      </c>
+      <c r="S54">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T54" t="s">
+        <v>229</v>
+      </c>
+      <c r="U54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>315</v>
+      </c>
+      <c r="B55">
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>40</v>
+      </c>
+      <c r="D55" t="s">
+        <v>373</v>
+      </c>
+      <c r="F55" t="s">
+        <v>338</v>
+      </c>
+      <c r="H55" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>55</v>
+      </c>
+      <c r="L55" t="s">
+        <v>225</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="N55" t="s">
+        <v>226</v>
+      </c>
+      <c r="O55">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="P55" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q55">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="R55" t="s">
+        <v>228</v>
+      </c>
+      <c r="S55">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="T55" t="s">
+        <v>229</v>
+      </c>
+      <c r="U55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>315</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>374</v>
+      </c>
+      <c r="F56" t="s">
+        <v>338</v>
+      </c>
+      <c r="H56" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>56</v>
+      </c>
+      <c r="L56" t="s">
+        <v>225</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="N56" t="s">
+        <v>226</v>
+      </c>
+      <c r="O56">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="P56" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q56">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="R56" t="s">
+        <v>228</v>
+      </c>
+      <c r="S56">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="T56" t="s">
+        <v>229</v>
+      </c>
+      <c r="U56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>321</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>59</v>
+      </c>
+      <c r="D57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
+        <v>338</v>
+      </c>
+      <c r="H57" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <v>57</v>
+      </c>
+      <c r="L57" t="s">
+        <v>225</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="N57" t="s">
+        <v>226</v>
+      </c>
+      <c r="O57">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="P57" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q57">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="R57" t="s">
+        <v>228</v>
+      </c>
+      <c r="S57">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="T57" t="s">
+        <v>229</v>
+      </c>
+      <c r="U57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>321</v>
+      </c>
+      <c r="B58">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" t="s">
+        <v>338</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>58</v>
+      </c>
+      <c r="L58" t="s">
+        <v>225</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="N58" t="s">
+        <v>226</v>
+      </c>
+      <c r="O58">
+        <v>0.9829</v>
+      </c>
+      <c r="P58" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q58">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="R58" t="s">
+        <v>228</v>
+      </c>
+      <c r="S58">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="T58" t="s">
+        <v>229</v>
+      </c>
+      <c r="U58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>321</v>
+      </c>
+      <c r="B59">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>375</v>
+      </c>
+      <c r="F59" t="s">
+        <v>338</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>59</v>
+      </c>
+      <c r="L59" t="s">
+        <v>225</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="N59" t="s">
+        <v>226</v>
+      </c>
+      <c r="O59">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="P59" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q59">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="R59" t="s">
+        <v>228</v>
+      </c>
+      <c r="S59">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="T59" t="s">
+        <v>229</v>
+      </c>
+      <c r="U59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>321</v>
+      </c>
+      <c r="B60">
+        <v>49</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" t="s">
+        <v>338</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>60</v>
+      </c>
+      <c r="L60" t="s">
+        <v>225</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="N60" t="s">
+        <v>226</v>
+      </c>
+      <c r="O60">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="P60" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q60">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="R60" t="s">
+        <v>228</v>
+      </c>
+      <c r="S60">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="T60" t="s">
+        <v>229</v>
+      </c>
+      <c r="U60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>328</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>35</v>
+      </c>
+      <c r="D61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" t="s">
+        <v>338</v>
+      </c>
+      <c r="H61" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" t="s">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>61</v>
+      </c>
+      <c r="L61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="N61" t="s">
+        <v>226</v>
+      </c>
+      <c r="O61">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="P61" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q61">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="R61" t="s">
+        <v>228</v>
+      </c>
+      <c r="S61">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="T61" t="s">
+        <v>229</v>
+      </c>
+      <c r="U61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>328</v>
+      </c>
+      <c r="B62">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>44</v>
+      </c>
+      <c r="D62" t="s">
+        <v>275</v>
+      </c>
+      <c r="F62" t="s">
+        <v>338</v>
+      </c>
+      <c r="H62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <v>62</v>
+      </c>
+      <c r="L62" t="s">
+        <v>225</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="N62" t="s">
+        <v>226</v>
+      </c>
+      <c r="O62">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="P62" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q62">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="R62" t="s">
+        <v>228</v>
+      </c>
+      <c r="S62">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="T62" t="s">
+        <v>229</v>
+      </c>
+      <c r="U62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>328</v>
+      </c>
+      <c r="B63">
+        <v>28</v>
+      </c>
+      <c r="C63">
+        <v>53</v>
+      </c>
+      <c r="D63" t="s">
+        <v>376</v>
+      </c>
+      <c r="F63" t="s">
+        <v>338</v>
+      </c>
+      <c r="H63" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" t="s">
+        <v>4</v>
+      </c>
+      <c r="K63">
+        <v>63</v>
+      </c>
+      <c r="L63" t="s">
+        <v>225</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0.9123</v>
+      </c>
+      <c r="N63" t="s">
+        <v>226</v>
+      </c>
+      <c r="O63">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P63" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q63">
+        <v>0.9123</v>
+      </c>
+      <c r="R63" t="s">
+        <v>228</v>
+      </c>
+      <c r="S63">
+        <v>8.77E-2</v>
+      </c>
+      <c r="T63" t="s">
+        <v>229</v>
+      </c>
+      <c r="U63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>328</v>
+      </c>
+      <c r="B64">
+        <v>42</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>325</v>
+      </c>
+      <c r="F64" t="s">
+        <v>338</v>
+      </c>
+      <c r="H64" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>64</v>
+      </c>
+      <c r="L64" t="s">
+        <v>225</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="N64" t="s">
+        <v>226</v>
+      </c>
+      <c r="O64">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="P64" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q64">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="R64" t="s">
+        <v>228</v>
+      </c>
+      <c r="S64">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="T64" t="s">
+        <v>229</v>
+      </c>
+      <c r="U64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B65">
+        <v>55</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>377</v>
+      </c>
+      <c r="F65" t="s">
+        <v>338</v>
+      </c>
+      <c r="H65" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>65</v>
+      </c>
+      <c r="L65" t="s">
+        <v>225</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N65" t="s">
+        <v>226</v>
+      </c>
+      <c r="O65">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="P65" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q65">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R65" t="s">
+        <v>228</v>
+      </c>
+      <c r="S65">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T65" t="s">
+        <v>229</v>
+      </c>
+      <c r="U65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>378</v>
+      </c>
+      <c r="F66" t="s">
+        <v>338</v>
+      </c>
+      <c r="H66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>66</v>
+      </c>
+      <c r="L66" t="s">
+        <v>225</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="N66" t="s">
+        <v>226</v>
+      </c>
+      <c r="O66">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="P66" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q66">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="R66" t="s">
+        <v>228</v>
+      </c>
+      <c r="S66">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="T66" t="s">
+        <v>229</v>
+      </c>
+      <c r="U66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>29</v>
+      </c>
+      <c r="D67" t="s">
+        <v>379</v>
+      </c>
+      <c r="F67" t="s">
+        <v>338</v>
+      </c>
+      <c r="H67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <v>67</v>
+      </c>
+      <c r="L67" t="s">
+        <v>225</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="N67" t="s">
+        <v>226</v>
+      </c>
+      <c r="O67">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="P67" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q67">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="R67" t="s">
+        <v>228</v>
+      </c>
+      <c r="S67">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="T67" t="s">
+        <v>229</v>
+      </c>
+      <c r="U67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>334</v>
+      </c>
+      <c r="B68">
+        <v>34</v>
+      </c>
+      <c r="C68">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s">
+        <v>380</v>
+      </c>
+      <c r="F68" t="s">
+        <v>338</v>
+      </c>
+      <c r="H68" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" t="s">
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <v>68</v>
+      </c>
+      <c r="L68" t="s">
+        <v>225</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N68" t="s">
+        <v>226</v>
+      </c>
+      <c r="O68">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="P68" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q68">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R68" t="s">
+        <v>228</v>
+      </c>
+      <c r="S68">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T68" t="s">
+        <v>229</v>
+      </c>
+      <c r="U68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>334</v>
+      </c>
+      <c r="B69">
+        <v>47</v>
+      </c>
+      <c r="C69">
+        <v>47</v>
+      </c>
+      <c r="D69" t="s">
+        <v>381</v>
+      </c>
+      <c r="F69" t="s">
+        <v>338</v>
+      </c>
+      <c r="H69" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" t="s">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>69</v>
+      </c>
+      <c r="L69" t="s">
+        <v>225</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0.9123</v>
+      </c>
+      <c r="N69" t="s">
+        <v>226</v>
+      </c>
+      <c r="O69">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="P69" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q69">
+        <v>0.9123</v>
+      </c>
+      <c r="R69" t="s">
+        <v>228</v>
+      </c>
+      <c r="S69">
+        <v>8.77E-2</v>
+      </c>
+      <c r="T69" t="s">
+        <v>229</v>
+      </c>
+      <c r="U69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>382</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>57</v>
+      </c>
+      <c r="D70" t="s">
+        <v>383</v>
+      </c>
+      <c r="F70" t="s">
+        <v>338</v>
+      </c>
+      <c r="H70" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" t="s">
+        <v>4</v>
+      </c>
+      <c r="K70">
+        <v>70</v>
+      </c>
+      <c r="L70" t="s">
+        <v>225</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="N70" t="s">
+        <v>226</v>
+      </c>
+      <c r="O70">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="P70" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q70">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="R70" t="s">
+        <v>228</v>
+      </c>
+      <c r="S70">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="T70" t="s">
+        <v>229</v>
+      </c>
+      <c r="U70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>382</v>
+      </c>
+      <c r="B71">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>109</v>
+      </c>
+      <c r="F71" t="s">
+        <v>338</v>
+      </c>
+      <c r="H71" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71">
+        <v>71</v>
+      </c>
+      <c r="L71" t="s">
+        <v>225</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="N71" t="s">
+        <v>226</v>
+      </c>
+      <c r="O71">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="P71" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q71">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="R71" t="s">
+        <v>228</v>
+      </c>
+      <c r="S71">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="T71" t="s">
+        <v>229</v>
+      </c>
+      <c r="U71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>382</v>
+      </c>
+      <c r="B72">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>384</v>
+      </c>
+      <c r="F72" t="s">
+        <v>338</v>
+      </c>
+      <c r="H72" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>72</v>
+      </c>
+      <c r="L72" t="s">
+        <v>225</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N72" t="s">
+        <v>226</v>
+      </c>
+      <c r="O72">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="P72" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q72">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R72" t="s">
+        <v>228</v>
+      </c>
+      <c r="S72">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T72" t="s">
+        <v>229</v>
+      </c>
+      <c r="U72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>382</v>
+      </c>
+      <c r="B73">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" t="s">
+        <v>338</v>
+      </c>
+      <c r="H73" t="s">
+        <v>3</v>
+      </c>
+      <c r="J73" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73">
+        <v>73</v>
+      </c>
+      <c r="L73" t="s">
+        <v>225</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="N73" t="s">
+        <v>226</v>
+      </c>
+      <c r="O73">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="P73" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q73">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="R73" t="s">
+        <v>228</v>
+      </c>
+      <c r="S73">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="T73" t="s">
+        <v>229</v>
+      </c>
+      <c r="U73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>382</v>
+      </c>
+      <c r="B74">
+        <v>53</v>
+      </c>
+      <c r="C74">
+        <v>36</v>
+      </c>
+      <c r="D74" t="s">
+        <v>385</v>
+      </c>
+      <c r="F74" t="s">
+        <v>338</v>
+      </c>
+      <c r="H74" t="s">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74">
+        <v>74</v>
+      </c>
+      <c r="L74" t="s">
+        <v>225</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="N74" t="s">
+        <v>226</v>
+      </c>
+      <c r="O74">
+        <v>0.9849</v>
+      </c>
+      <c r="P74" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q74">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="R74" t="s">
+        <v>228</v>
+      </c>
+      <c r="S74">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="T74" t="s">
+        <v>229</v>
+      </c>
+      <c r="U74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>386</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>46</v>
+      </c>
+      <c r="D75" t="s">
+        <v>387</v>
+      </c>
+      <c r="F75" t="s">
+        <v>338</v>
+      </c>
+      <c r="H75" t="s">
+        <v>3</v>
+      </c>
+      <c r="J75" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>75</v>
+      </c>
+      <c r="L75" t="s">
+        <v>225</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="N75" t="s">
+        <v>226</v>
+      </c>
+      <c r="O75">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="P75" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q75">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="R75" t="s">
+        <v>228</v>
+      </c>
+      <c r="S75">
+        <v>8.72E-2</v>
+      </c>
+      <c r="T75" t="s">
+        <v>229</v>
+      </c>
+      <c r="U75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>386</v>
+      </c>
+      <c r="B76">
+        <v>19</v>
+      </c>
+      <c r="C76">
+        <v>55</v>
+      </c>
+      <c r="D76" t="s">
+        <v>388</v>
+      </c>
+      <c r="F76" t="s">
+        <v>338</v>
+      </c>
+      <c r="H76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76">
+        <v>76</v>
+      </c>
+      <c r="L76" t="s">
+        <v>225</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="N76" t="s">
+        <v>226</v>
+      </c>
+      <c r="O76">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="P76" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q76">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="R76" t="s">
+        <v>228</v>
+      </c>
+      <c r="S76">
+        <v>8.72E-2</v>
+      </c>
+      <c r="T76" t="s">
+        <v>229</v>
+      </c>
+      <c r="U76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77">
+        <v>33</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>389</v>
+      </c>
+      <c r="F77" t="s">
+        <v>338</v>
+      </c>
+      <c r="H77" t="s">
+        <v>3</v>
+      </c>
+      <c r="J77" t="s">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>77</v>
+      </c>
+      <c r="L77" t="s">
+        <v>225</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="N77" t="s">
+        <v>226</v>
+      </c>
+      <c r="O77">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="P77" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q77">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="R77" t="s">
+        <v>228</v>
+      </c>
+      <c r="S77">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="T77" t="s">
+        <v>229</v>
+      </c>
+      <c r="U77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>386</v>
+      </c>
+      <c r="B78">
+        <v>46</v>
+      </c>
+      <c r="C78">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>390</v>
+      </c>
+      <c r="F78" t="s">
+        <v>338</v>
+      </c>
+      <c r="H78" t="s">
+        <v>3</v>
+      </c>
+      <c r="J78" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78">
+        <v>78</v>
+      </c>
+      <c r="L78" t="s">
+        <v>225</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N78" t="s">
+        <v>226</v>
+      </c>
+      <c r="O78">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="P78" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q78">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R78" t="s">
+        <v>228</v>
+      </c>
+      <c r="S78">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T78" t="s">
+        <v>229</v>
+      </c>
+      <c r="U78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>386</v>
+      </c>
+      <c r="B79">
+        <v>59</v>
+      </c>
+      <c r="C79">
+        <v>24</v>
+      </c>
+      <c r="D79" t="s">
+        <v>391</v>
+      </c>
+      <c r="F79" t="s">
+        <v>338</v>
+      </c>
+      <c r="H79" t="s">
+        <v>3</v>
+      </c>
+      <c r="J79" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>79</v>
+      </c>
+      <c r="L79" t="s">
+        <v>225</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="N79" t="s">
+        <v>226</v>
+      </c>
+      <c r="O79">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="P79" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q79">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="R79" t="s">
+        <v>228</v>
+      </c>
+      <c r="S79">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="T79" t="s">
+        <v>229</v>
+      </c>
+      <c r="U79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>392</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>36</v>
+      </c>
+      <c r="D80" t="s">
+        <v>155</v>
+      </c>
+      <c r="F80" t="s">
+        <v>338</v>
+      </c>
+      <c r="H80" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" t="s">
+        <v>4</v>
+      </c>
+      <c r="K80">
+        <v>80</v>
+      </c>
+      <c r="L80" t="s">
+        <v>225</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="N80" t="s">
+        <v>226</v>
+      </c>
+      <c r="O80">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="P80" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q80">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="R80" t="s">
+        <v>228</v>
+      </c>
+      <c r="S80">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="T80" t="s">
+        <v>229</v>
+      </c>
+      <c r="U80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>392</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>46</v>
+      </c>
+      <c r="D81" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" t="s">
+        <v>338</v>
+      </c>
+      <c r="H81" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81">
+        <v>81</v>
+      </c>
+      <c r="L81" t="s">
+        <v>225</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="N81" t="s">
+        <v>226</v>
+      </c>
+      <c r="O81">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="P81" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q81">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="R81" t="s">
+        <v>228</v>
+      </c>
+      <c r="S81">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="T81" t="s">
+        <v>229</v>
+      </c>
+      <c r="U81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>392</v>
+      </c>
+      <c r="B82">
+        <v>38</v>
+      </c>
+      <c r="C82">
+        <v>56</v>
+      </c>
+      <c r="D82" t="s">
+        <v>393</v>
+      </c>
+      <c r="F82" t="s">
+        <v>338</v>
+      </c>
+      <c r="H82" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" t="s">
+        <v>4</v>
+      </c>
+      <c r="K82">
+        <v>82</v>
+      </c>
+      <c r="L82" t="s">
+        <v>225</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+      <c r="O82">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="P82" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q82">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="R82" t="s">
+        <v>228</v>
+      </c>
+      <c r="S82">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="T82" t="s">
+        <v>229</v>
+      </c>
+      <c r="U82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>392</v>
+      </c>
+      <c r="B83">
+        <v>52</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" t="s">
+        <v>338</v>
+      </c>
+      <c r="H83" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83">
+        <v>83</v>
+      </c>
+      <c r="L83" t="s">
+        <v>225</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="N83" t="s">
+        <v>226</v>
+      </c>
+      <c r="O83">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="P83" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q83">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="R83" t="s">
+        <v>228</v>
+      </c>
+      <c r="S83">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="T83" t="s">
+        <v>229</v>
+      </c>
+      <c r="U83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>394</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>395</v>
+      </c>
+      <c r="F84" t="s">
+        <v>338</v>
+      </c>
+      <c r="H84" t="s">
+        <v>3</v>
+      </c>
+      <c r="J84" t="s">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <v>84</v>
+      </c>
+      <c r="L84" t="s">
+        <v>225</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="N84" t="s">
+        <v>226</v>
+      </c>
+      <c r="O84">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="P84" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q84">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="R84" t="s">
+        <v>228</v>
+      </c>
+      <c r="S84">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="T84" t="s">
+        <v>229</v>
+      </c>
+      <c r="U84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>394</v>
+      </c>
+      <c r="B85">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
+        <v>396</v>
+      </c>
+      <c r="F85" t="s">
+        <v>338</v>
+      </c>
+      <c r="H85" t="s">
+        <v>3</v>
+      </c>
+      <c r="J85" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85">
+        <v>85</v>
+      </c>
+      <c r="L85" t="s">
+        <v>225</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="N85" t="s">
+        <v>226</v>
+      </c>
+      <c r="O85">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="P85" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q85">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="R85" t="s">
+        <v>228</v>
+      </c>
+      <c r="S85">
+        <v>8.72E-2</v>
+      </c>
+      <c r="T85" t="s">
+        <v>229</v>
+      </c>
+      <c r="U85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>394</v>
+      </c>
+      <c r="B86">
+        <v>31</v>
+      </c>
+      <c r="C86">
+        <v>37</v>
+      </c>
+      <c r="D86" t="s">
+        <v>397</v>
+      </c>
+      <c r="F86" t="s">
+        <v>338</v>
+      </c>
+      <c r="H86" t="s">
+        <v>3</v>
+      </c>
+      <c r="J86" t="s">
+        <v>4</v>
+      </c>
+      <c r="K86">
+        <v>86</v>
+      </c>
+      <c r="L86" t="s">
+        <v>225</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="N86" t="s">
+        <v>226</v>
+      </c>
+      <c r="O86">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="P86" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q86">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="R86" t="s">
+        <v>228</v>
+      </c>
+      <c r="S86">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="T86" t="s">
+        <v>229</v>
+      </c>
+      <c r="U86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>394</v>
+      </c>
+      <c r="B87">
+        <v>44</v>
+      </c>
+      <c r="C87">
+        <v>47</v>
+      </c>
+      <c r="D87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" t="s">
+        <v>338</v>
+      </c>
+      <c r="H87" t="s">
+        <v>3</v>
+      </c>
+      <c r="J87" t="s">
+        <v>4</v>
+      </c>
+      <c r="K87">
+        <v>87</v>
+      </c>
+      <c r="L87" t="s">
+        <v>225</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0.9123</v>
+      </c>
+      <c r="N87" t="s">
+        <v>226</v>
+      </c>
+      <c r="O87">
+        <v>0.9859</v>
+      </c>
+      <c r="P87" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q87">
+        <v>0.9123</v>
+      </c>
+      <c r="R87" t="s">
+        <v>228</v>
+      </c>
+      <c r="S87">
+        <v>8.77E-2</v>
+      </c>
+      <c r="T87" t="s">
+        <v>229</v>
+      </c>
+      <c r="U87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>394</v>
+      </c>
+      <c r="B88">
+        <v>57</v>
+      </c>
+      <c r="C88">
+        <v>58</v>
+      </c>
+      <c r="D88" t="s">
+        <v>398</v>
+      </c>
+      <c r="F88" t="s">
+        <v>338</v>
+      </c>
+      <c r="H88" t="s">
+        <v>3</v>
+      </c>
+      <c r="J88" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88">
+        <v>88</v>
+      </c>
+      <c r="L88" t="s">
+        <v>225</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="N88" t="s">
+        <v>226</v>
+      </c>
+      <c r="O88">
+        <v>0.9859</v>
+      </c>
+      <c r="P88" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q88">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="R88" t="s">
+        <v>228</v>
+      </c>
+      <c r="S88">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="T88" t="s">
+        <v>229</v>
+      </c>
+      <c r="U88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>399</v>
+      </c>
+      <c r="B89">
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>400</v>
+      </c>
+      <c r="F89" t="s">
+        <v>338</v>
+      </c>
+      <c r="H89" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>89</v>
+      </c>
+      <c r="L89" t="s">
+        <v>225</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N89" t="s">
+        <v>226</v>
+      </c>
+      <c r="O89">
+        <v>0.9859</v>
+      </c>
+      <c r="P89" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q89">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R89" t="s">
+        <v>228</v>
+      </c>
+      <c r="S89">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T89" t="s">
+        <v>229</v>
+      </c>
+      <c r="U89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>399</v>
+      </c>
+      <c r="B90">
+        <v>24</v>
+      </c>
+      <c r="C90">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>290</v>
+      </c>
+      <c r="F90" t="s">
+        <v>338</v>
+      </c>
+      <c r="H90" t="s">
+        <v>3</v>
+      </c>
+      <c r="J90" t="s">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>90</v>
+      </c>
+      <c r="L90" t="s">
+        <v>225</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="N90" t="s">
+        <v>226</v>
+      </c>
+      <c r="O90">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="P90" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q90">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="R90" t="s">
+        <v>228</v>
+      </c>
+      <c r="S90">
+        <v>8.72E-2</v>
+      </c>
+      <c r="T90" t="s">
+        <v>229</v>
+      </c>
+      <c r="U90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>399</v>
+      </c>
+      <c r="B91">
+        <v>37</v>
+      </c>
+      <c r="C91">
+        <v>29</v>
+      </c>
+      <c r="D91" t="s">
+        <v>332</v>
+      </c>
+      <c r="F91" t="s">
+        <v>338</v>
+      </c>
+      <c r="H91" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91">
+        <v>91</v>
+      </c>
+      <c r="L91" t="s">
+        <v>225</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N91" t="s">
+        <v>226</v>
+      </c>
+      <c r="O91">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="P91" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q91">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R91" t="s">
+        <v>228</v>
+      </c>
+      <c r="S91">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T91" t="s">
+        <v>229</v>
+      </c>
+      <c r="U91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>399</v>
+      </c>
+      <c r="B92">
+        <v>50</v>
+      </c>
+      <c r="C92">
+        <v>40</v>
+      </c>
+      <c r="D92" t="s">
+        <v>401</v>
+      </c>
+      <c r="F92" t="s">
+        <v>338</v>
+      </c>
+      <c r="H92" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" t="s">
+        <v>4</v>
+      </c>
+      <c r="K92">
+        <v>92</v>
+      </c>
+      <c r="L92" t="s">
+        <v>225</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="N92" t="s">
+        <v>226</v>
+      </c>
+      <c r="O92">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="P92" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q92">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="R92" t="s">
+        <v>228</v>
+      </c>
+      <c r="S92">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="T92" t="s">
+        <v>229</v>
+      </c>
+      <c r="U92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>402</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>50</v>
+      </c>
+      <c r="D93" t="s">
+        <v>403</v>
+      </c>
+      <c r="F93" t="s">
+        <v>338</v>
+      </c>
+      <c r="H93" t="s">
+        <v>3</v>
+      </c>
+      <c r="J93" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93">
+        <v>93</v>
+      </c>
+      <c r="L93" t="s">
+        <v>225</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="N93" t="s">
+        <v>226</v>
+      </c>
+      <c r="O93">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="P93" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q93">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="R93" t="s">
+        <v>228</v>
+      </c>
+      <c r="S93">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="T93" t="s">
+        <v>229</v>
+      </c>
+      <c r="U93">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>402</v>
+      </c>
+      <c r="B94">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>59</v>
+      </c>
+      <c r="D94" t="s">
+        <v>260</v>
+      </c>
+      <c r="F94" t="s">
+        <v>338</v>
+      </c>
+      <c r="H94" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94">
+        <v>94</v>
+      </c>
+      <c r="L94" t="s">
+        <v>225</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="N94" t="s">
+        <v>226</v>
+      </c>
+      <c r="O94">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="P94" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q94">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="R94" t="s">
+        <v>228</v>
+      </c>
+      <c r="S94">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="T94" t="s">
+        <v>229</v>
+      </c>
+      <c r="U94">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>402</v>
+      </c>
+      <c r="B95">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>404</v>
+      </c>
+      <c r="F95" t="s">
+        <v>338</v>
+      </c>
+      <c r="H95" t="s">
+        <v>3</v>
+      </c>
+      <c r="J95" t="s">
+        <v>4</v>
+      </c>
+      <c r="K95">
+        <v>95</v>
+      </c>
+      <c r="L95" t="s">
+        <v>225</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N95" t="s">
+        <v>226</v>
+      </c>
+      <c r="O95">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="P95" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q95">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R95" t="s">
+        <v>228</v>
+      </c>
+      <c r="S95">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T95" t="s">
+        <v>229</v>
+      </c>
+      <c r="U95">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>402</v>
+      </c>
+      <c r="B96">
+        <v>43</v>
+      </c>
+      <c r="C96">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>333</v>
+      </c>
+      <c r="F96" t="s">
+        <v>338</v>
+      </c>
+      <c r="H96" t="s">
+        <v>3</v>
+      </c>
+      <c r="J96" t="s">
+        <v>4</v>
+      </c>
+      <c r="K96">
+        <v>96</v>
+      </c>
+      <c r="L96" t="s">
+        <v>225</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="N96" t="s">
+        <v>226</v>
+      </c>
+      <c r="O96">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="P96" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q96">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="R96" t="s">
+        <v>228</v>
+      </c>
+      <c r="S96">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="T96" t="s">
+        <v>229</v>
+      </c>
+      <c r="U96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>402</v>
+      </c>
+      <c r="B97">
+        <v>56</v>
+      </c>
+      <c r="C97">
+        <v>29</v>
+      </c>
+      <c r="D97" t="s">
+        <v>241</v>
+      </c>
+      <c r="F97" t="s">
+        <v>338</v>
+      </c>
+      <c r="H97" t="s">
+        <v>3</v>
+      </c>
+      <c r="J97" t="s">
+        <v>4</v>
+      </c>
+      <c r="K97">
+        <v>97</v>
+      </c>
+      <c r="L97" t="s">
+        <v>225</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="N97" t="s">
+        <v>226</v>
+      </c>
+      <c r="O97">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="P97" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q97">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="R97" t="s">
+        <v>228</v>
+      </c>
+      <c r="S97">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="T97" t="s">
+        <v>229</v>
+      </c>
+      <c r="U97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>405</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>38</v>
+      </c>
+      <c r="D98" t="s">
+        <v>406</v>
+      </c>
+      <c r="F98" t="s">
+        <v>338</v>
+      </c>
+      <c r="H98" t="s">
+        <v>3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>4</v>
+      </c>
+      <c r="K98">
+        <v>98</v>
+      </c>
+      <c r="L98" t="s">
+        <v>225</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="N98" t="s">
+        <v>226</v>
+      </c>
+      <c r="O98">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="P98" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q98">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="R98" t="s">
+        <v>228</v>
+      </c>
+      <c r="S98">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="T98" t="s">
+        <v>229</v>
+      </c>
+      <c r="U98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>405</v>
+      </c>
+      <c r="B99">
+        <v>22</v>
+      </c>
+      <c r="C99">
+        <v>47</v>
+      </c>
+      <c r="D99" t="s">
+        <v>407</v>
+      </c>
+      <c r="F99" t="s">
+        <v>338</v>
+      </c>
+      <c r="H99" t="s">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>4</v>
+      </c>
+      <c r="K99">
+        <v>99</v>
+      </c>
+      <c r="L99" t="s">
+        <v>225</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N99" t="s">
+        <v>226</v>
+      </c>
+      <c r="O99">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="P99" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q99">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R99" t="s">
+        <v>228</v>
+      </c>
+      <c r="S99">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T99" t="s">
+        <v>229</v>
+      </c>
+      <c r="U99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>405</v>
+      </c>
+      <c r="B100">
+        <v>35</v>
+      </c>
+      <c r="C100">
+        <v>58</v>
+      </c>
+      <c r="D100" t="s">
+        <v>408</v>
+      </c>
+      <c r="F100" t="s">
+        <v>338</v>
+      </c>
+      <c r="H100" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100">
+        <v>100</v>
+      </c>
+      <c r="L100" t="s">
+        <v>225</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="N100" t="s">
+        <v>226</v>
+      </c>
+      <c r="O100">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="P100" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q100">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="R100" t="s">
+        <v>228</v>
+      </c>
+      <c r="S100">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="T100" t="s">
+        <v>229</v>
+      </c>
+      <c r="U100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>405</v>
+      </c>
+      <c r="B101">
+        <v>49</v>
+      </c>
+      <c r="C101">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s">
+        <v>338</v>
+      </c>
+      <c r="H101" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>101</v>
+      </c>
+      <c r="L101" t="s">
+        <v>225</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="N101" t="s">
+        <v>226</v>
+      </c>
+      <c r="O101">
+        <v>0.9869</v>
+      </c>
+      <c r="P101" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q101">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="R101" t="s">
+        <v>228</v>
+      </c>
+      <c r="S101">
+        <v>8.72E-2</v>
+      </c>
+      <c r="T101" t="s">
+        <v>229</v>
+      </c>
+      <c r="U101">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>409</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F102" t="s">
+        <v>338</v>
+      </c>
+      <c r="H102" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102">
+        <v>102</v>
+      </c>
+      <c r="L102" t="s">
+        <v>225</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N102" t="s">
+        <v>226</v>
+      </c>
+      <c r="O102">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="P102" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q102">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R102" t="s">
+        <v>228</v>
+      </c>
+      <c r="S102">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T102" t="s">
+        <v>229</v>
+      </c>
+      <c r="U102">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>409</v>
+      </c>
+      <c r="B103">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>24</v>
+      </c>
+      <c r="D103" t="s">
+        <v>314</v>
+      </c>
+      <c r="F103" t="s">
+        <v>338</v>
+      </c>
+      <c r="H103" t="s">
+        <v>3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <v>103</v>
+      </c>
+      <c r="L103" t="s">
+        <v>225</v>
+      </c>
+      <c r="M103" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N103" t="s">
+        <v>226</v>
+      </c>
+      <c r="O103">
+        <v>0.9869</v>
+      </c>
+      <c r="P103" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q103">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R103" t="s">
+        <v>228</v>
+      </c>
+      <c r="S103">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T103" t="s">
+        <v>229</v>
+      </c>
+      <c r="U103">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>409</v>
+      </c>
+      <c r="B104">
+        <v>28</v>
+      </c>
+      <c r="C104">
+        <v>34</v>
+      </c>
+      <c r="D104" t="s">
+        <v>410</v>
+      </c>
+      <c r="F104" t="s">
+        <v>338</v>
+      </c>
+      <c r="H104" t="s">
+        <v>3</v>
+      </c>
+      <c r="J104" t="s">
+        <v>4</v>
+      </c>
+      <c r="K104">
+        <v>104</v>
+      </c>
+      <c r="L104" t="s">
+        <v>225</v>
+      </c>
+      <c r="M104" s="3">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="N104" t="s">
+        <v>226</v>
+      </c>
+      <c r="O104">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="P104" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q104">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="R104" t="s">
+        <v>228</v>
+      </c>
+      <c r="S104">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="T104" t="s">
+        <v>229</v>
+      </c>
+      <c r="U104">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>409</v>
+      </c>
+      <c r="B105">
+        <v>41</v>
+      </c>
+      <c r="C105">
+        <v>44</v>
+      </c>
+      <c r="D105" t="s">
+        <v>411</v>
+      </c>
+      <c r="F105" t="s">
+        <v>338</v>
+      </c>
+      <c r="H105" t="s">
+        <v>3</v>
+      </c>
+      <c r="J105" t="s">
+        <v>4</v>
+      </c>
+      <c r="K105">
+        <v>105</v>
+      </c>
+      <c r="L105" t="s">
+        <v>225</v>
+      </c>
+      <c r="M105" s="3">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="N105" t="s">
+        <v>226</v>
+      </c>
+      <c r="O105">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="P105" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q105">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="R105" t="s">
+        <v>228</v>
+      </c>
+      <c r="S105">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="T105" t="s">
+        <v>229</v>
+      </c>
+      <c r="U105">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B106">
+        <v>54</v>
+      </c>
+      <c r="C106">
+        <v>54</v>
+      </c>
+      <c r="D106" t="s">
+        <v>291</v>
+      </c>
+      <c r="F106" t="s">
+        <v>338</v>
+      </c>
+      <c r="H106" t="s">
+        <v>3</v>
+      </c>
+      <c r="J106" t="s">
+        <v>4</v>
+      </c>
+      <c r="K106">
+        <v>106</v>
+      </c>
+      <c r="L106" t="s">
+        <v>225</v>
+      </c>
+      <c r="M106" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N106" t="s">
+        <v>226</v>
+      </c>
+      <c r="O106">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="P106" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q106">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R106" t="s">
+        <v>228</v>
+      </c>
+      <c r="S106">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T106" t="s">
+        <v>229</v>
+      </c>
+      <c r="U106">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>412</v>
+      </c>
+      <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>413</v>
+      </c>
+      <c r="F107" t="s">
+        <v>338</v>
+      </c>
+      <c r="H107" t="s">
+        <v>3</v>
+      </c>
+      <c r="J107" t="s">
+        <v>4</v>
+      </c>
+      <c r="K107">
+        <v>107</v>
+      </c>
+      <c r="L107" t="s">
+        <v>225</v>
+      </c>
+      <c r="M107" s="3">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="N107" t="s">
+        <v>226</v>
+      </c>
+      <c r="O107">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="P107" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q107">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="R107" t="s">
+        <v>228</v>
+      </c>
+      <c r="S107">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="T107" t="s">
+        <v>229</v>
+      </c>
+      <c r="U107">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>412</v>
+      </c>
+      <c r="B108">
+        <v>21</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s">
+        <v>293</v>
+      </c>
+      <c r="F108" t="s">
+        <v>338</v>
+      </c>
+      <c r="H108" t="s">
+        <v>3</v>
+      </c>
+      <c r="J108" t="s">
+        <v>4</v>
+      </c>
+      <c r="K108">
+        <v>108</v>
+      </c>
+      <c r="L108" t="s">
+        <v>225</v>
+      </c>
+      <c r="M108" s="3">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="N108" t="s">
+        <v>226</v>
+      </c>
+      <c r="O108">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="P108" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q108">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="R108" t="s">
+        <v>228</v>
+      </c>
+      <c r="S108">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="T108" t="s">
+        <v>229</v>
+      </c>
+      <c r="U108">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>412</v>
+      </c>
+      <c r="B109">
+        <v>34</v>
+      </c>
+      <c r="C109">
+        <v>21</v>
+      </c>
+      <c r="D109" t="s">
+        <v>414</v>
+      </c>
+      <c r="F109" t="s">
+        <v>338</v>
+      </c>
+      <c r="H109" t="s">
+        <v>3</v>
+      </c>
+      <c r="J109" t="s">
+        <v>4</v>
+      </c>
+      <c r="K109">
+        <v>109</v>
+      </c>
+      <c r="L109" t="s">
+        <v>225</v>
+      </c>
+      <c r="M109" s="3">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="N109" t="s">
+        <v>226</v>
+      </c>
+      <c r="O109">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="P109" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q109">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="R109" t="s">
+        <v>228</v>
+      </c>
+      <c r="S109">
+        <v>8.72E-2</v>
+      </c>
+      <c r="T109" t="s">
+        <v>229</v>
+      </c>
+      <c r="U109">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>412</v>
+      </c>
+      <c r="B110">
+        <v>47</v>
+      </c>
+      <c r="C110">
+        <v>31</v>
+      </c>
+      <c r="D110" t="s">
+        <v>415</v>
+      </c>
+      <c r="F110" t="s">
+        <v>338</v>
+      </c>
+      <c r="H110" t="s">
+        <v>3</v>
+      </c>
+      <c r="J110" t="s">
+        <v>4</v>
+      </c>
+      <c r="K110">
+        <v>110</v>
+      </c>
+      <c r="L110" t="s">
+        <v>225</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="N110" t="s">
+        <v>226</v>
+      </c>
+      <c r="O110">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="P110" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q110">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="R110" t="s">
+        <v>228</v>
+      </c>
+      <c r="S110">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="T110" t="s">
+        <v>229</v>
+      </c>
+      <c r="U110">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>416</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>40</v>
+      </c>
+      <c r="D111" t="s">
+        <v>417</v>
+      </c>
+      <c r="F111" t="s">
+        <v>338</v>
+      </c>
+      <c r="H111" t="s">
+        <v>3</v>
+      </c>
+      <c r="J111" t="s">
+        <v>4</v>
+      </c>
+      <c r="K111">
+        <v>111</v>
+      </c>
+      <c r="L111" t="s">
+        <v>225</v>
+      </c>
+      <c r="M111" s="3">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="N111" t="s">
+        <v>226</v>
+      </c>
+      <c r="O111">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="P111" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q111">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="R111" t="s">
+        <v>228</v>
+      </c>
+      <c r="S111">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="T111" t="s">
+        <v>229</v>
+      </c>
+      <c r="U111">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>416</v>
+      </c>
+      <c r="B112">
+        <v>13</v>
+      </c>
+      <c r="C112">
+        <v>49</v>
+      </c>
+      <c r="D112" t="s">
+        <v>418</v>
+      </c>
+      <c r="F112" t="s">
+        <v>338</v>
+      </c>
+      <c r="H112" t="s">
+        <v>3</v>
+      </c>
+      <c r="J112" t="s">
+        <v>4</v>
+      </c>
+      <c r="K112">
+        <v>112</v>
+      </c>
+      <c r="L112" t="s">
+        <v>225</v>
+      </c>
+      <c r="M112" s="3">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="N112" t="s">
+        <v>226</v>
+      </c>
+      <c r="O112">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="P112" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q112">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="R112" t="s">
+        <v>228</v>
+      </c>
+      <c r="S112">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="T112" t="s">
+        <v>229</v>
+      </c>
+      <c r="U112">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>416</v>
+      </c>
+      <c r="B113">
+        <v>26</v>
+      </c>
+      <c r="C113">
+        <v>58</v>
+      </c>
+      <c r="D113" t="s">
+        <v>322</v>
+      </c>
+      <c r="F113" t="s">
+        <v>338</v>
+      </c>
+      <c r="H113" t="s">
+        <v>3</v>
+      </c>
+      <c r="J113" t="s">
+        <v>4</v>
+      </c>
+      <c r="K113">
+        <v>113</v>
+      </c>
+      <c r="L113" t="s">
+        <v>225</v>
+      </c>
+      <c r="M113" s="3">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="N113" t="s">
+        <v>226</v>
+      </c>
+      <c r="O113">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="P113" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q113">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="R113" t="s">
+        <v>228</v>
+      </c>
+      <c r="S113">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="T113" t="s">
+        <v>229</v>
+      </c>
+      <c r="U113">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>416</v>
+      </c>
+      <c r="B114">
+        <v>40</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>419</v>
+      </c>
+      <c r="F114" t="s">
+        <v>338</v>
+      </c>
+      <c r="H114" t="s">
+        <v>3</v>
+      </c>
+      <c r="J114" t="s">
+        <v>4</v>
+      </c>
+      <c r="K114">
+        <v>114</v>
+      </c>
+      <c r="L114" t="s">
+        <v>225</v>
+      </c>
+      <c r="M114" s="3">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="N114" t="s">
+        <v>226</v>
+      </c>
+      <c r="O114">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="P114" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q114">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="R114" t="s">
+        <v>228</v>
+      </c>
+      <c r="S114">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="T114" t="s">
+        <v>229</v>
+      </c>
+      <c r="U114">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>416</v>
+      </c>
+      <c r="B115">
+        <v>53</v>
+      </c>
+      <c r="C115">
+        <v>17</v>
+      </c>
+      <c r="D115" t="s">
+        <v>420</v>
+      </c>
+      <c r="F115" t="s">
+        <v>338</v>
+      </c>
+      <c r="H115" t="s">
+        <v>3</v>
+      </c>
+      <c r="J115" t="s">
+        <v>4</v>
+      </c>
+      <c r="K115">
+        <v>115</v>
+      </c>
+      <c r="L115" t="s">
+        <v>225</v>
+      </c>
+      <c r="M115" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="N115" t="s">
+        <v>226</v>
+      </c>
+      <c r="O115">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="P115" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q115">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="R115" t="s">
+        <v>228</v>
+      </c>
+      <c r="S115">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="T115" t="s">
+        <v>229</v>
+      </c>
+      <c r="U115">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>421</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s">
+        <v>422</v>
+      </c>
+      <c r="F116" t="s">
+        <v>338</v>
+      </c>
+      <c r="H116" t="s">
+        <v>3</v>
+      </c>
+      <c r="J116" t="s">
+        <v>4</v>
+      </c>
+      <c r="K116">
+        <v>116</v>
+      </c>
+      <c r="L116" t="s">
+        <v>225</v>
+      </c>
+      <c r="M116" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N116" t="s">
+        <v>226</v>
+      </c>
+      <c r="O116">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="P116" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q116">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R116" t="s">
+        <v>228</v>
+      </c>
+      <c r="S116">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T116" t="s">
+        <v>229</v>
+      </c>
+      <c r="U116">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>421</v>
+      </c>
+      <c r="B117">
+        <v>19</v>
+      </c>
+      <c r="C117">
+        <v>35</v>
+      </c>
+      <c r="D117" t="s">
+        <v>423</v>
+      </c>
+      <c r="F117" t="s">
+        <v>338</v>
+      </c>
+      <c r="H117" t="s">
+        <v>3</v>
+      </c>
+      <c r="J117" t="s">
+        <v>4</v>
+      </c>
+      <c r="K117">
+        <v>117</v>
+      </c>
+      <c r="L117" t="s">
+        <v>225</v>
+      </c>
+      <c r="M117" s="3">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="N117" t="s">
+        <v>226</v>
+      </c>
+      <c r="O117">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="P117" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q117">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="R117" t="s">
+        <v>228</v>
+      </c>
+      <c r="S117">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="T117" t="s">
+        <v>229</v>
+      </c>
+      <c r="U117">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>421</v>
+      </c>
+      <c r="B118">
+        <v>32</v>
+      </c>
+      <c r="C118">
+        <v>44</v>
+      </c>
+      <c r="D118" t="s">
+        <v>166</v>
+      </c>
+      <c r="F118" t="s">
+        <v>338</v>
+      </c>
+      <c r="H118" t="s">
+        <v>3</v>
+      </c>
+      <c r="J118" t="s">
+        <v>4</v>
+      </c>
+      <c r="K118">
+        <v>118</v>
+      </c>
+      <c r="L118" t="s">
+        <v>225</v>
+      </c>
+      <c r="M118" s="3">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="N118" t="s">
+        <v>226</v>
+      </c>
+      <c r="O118">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="P118" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q118">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="R118" t="s">
+        <v>228</v>
+      </c>
+      <c r="S118">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="T118" t="s">
+        <v>229</v>
+      </c>
+      <c r="U118">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>421</v>
+      </c>
+      <c r="B119">
+        <v>45</v>
+      </c>
+      <c r="C119">
+        <v>53</v>
+      </c>
+      <c r="D119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>338</v>
+      </c>
+      <c r="H119" t="s">
+        <v>3</v>
+      </c>
+      <c r="J119" t="s">
+        <v>4</v>
+      </c>
+      <c r="K119">
+        <v>119</v>
+      </c>
+      <c r="L119" t="s">
+        <v>225</v>
+      </c>
+      <c r="M119" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="N119" t="s">
+        <v>226</v>
+      </c>
+      <c r="O119">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="P119" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q119">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="R119" t="s">
+        <v>228</v>
+      </c>
+      <c r="S119">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T119" t="s">
+        <v>229</v>
+      </c>
+      <c r="U119">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>421</v>
+      </c>
+      <c r="B120">
+        <v>59</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120" t="s">
+        <v>424</v>
+      </c>
+      <c r="F120" t="s">
+        <v>338</v>
+      </c>
+      <c r="H120" t="s">
+        <v>3</v>
+      </c>
+      <c r="J120" t="s">
+        <v>4</v>
+      </c>
+      <c r="K120">
+        <v>120</v>
+      </c>
+      <c r="L120" t="s">
+        <v>225</v>
+      </c>
+      <c r="M120" s="3">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="N120" t="s">
+        <v>226</v>
+      </c>
+      <c r="O120">
+        <v>0.9879</v>
+      </c>
+      <c r="P120" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q120">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="R120" t="s">
+        <v>228</v>
+      </c>
+      <c r="S120">
+        <v>8.72E-2</v>
+      </c>
+      <c r="T120" t="s">
+        <v>229</v>
+      </c>
+      <c r="U120">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M121">
+        <f>MAX(M1:M120)</f>
+        <v>0.91320000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>